--- a/Base de Datos Julian David Villada.xlsx
+++ b/Base de Datos Julian David Villada.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\base-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="197">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -136,69 +136,33 @@
     <t>Mario</t>
   </si>
   <si>
-    <t>Carvajal Vargas</t>
-  </si>
-  <si>
     <t>Ismael</t>
   </si>
   <si>
-    <t>Zuleta Ruiz</t>
-  </si>
-  <si>
-    <t>Luis Restrepo</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
-    <t>Ortega Peña</t>
-  </si>
-  <si>
     <t>Jouliette</t>
   </si>
   <si>
-    <t>Barrera Lopez</t>
-  </si>
-  <si>
     <t>Sanchez</t>
   </si>
   <si>
-    <t>Sanchez Arenas</t>
-  </si>
-  <si>
     <t>Luisa</t>
   </si>
   <si>
-    <t>Armando Restrepo</t>
-  </si>
-  <si>
     <t>Fernanda</t>
   </si>
   <si>
-    <t>Cruz Castillo</t>
-  </si>
-  <si>
     <t>Karen</t>
   </si>
   <si>
-    <t>Rosero Zubieta</t>
-  </si>
-  <si>
     <t>Douglas</t>
   </si>
   <si>
-    <t>Moncaleano Preciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Luque Batuecas</t>
-  </si>
-  <si>
     <t>Roberto</t>
   </si>
   <si>
-    <t>Díaz Ibañez</t>
-  </si>
-  <si>
     <t>Guillermo</t>
   </si>
   <si>
@@ -281,13 +245,385 @@
   </si>
   <si>
     <t>Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carvajal </t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuleta </t>
+  </si>
+  <si>
+    <t>Restrepo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortega </t>
+  </si>
+  <si>
+    <t>Peña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrera </t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanchez </t>
+  </si>
+  <si>
+    <t>Arenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosero </t>
+  </si>
+  <si>
+    <t>Zubieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moncaleano </t>
+  </si>
+  <si>
+    <t>Preciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luque </t>
+  </si>
+  <si>
+    <t>Batuecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz </t>
+  </si>
+  <si>
+    <t>Ibañez</t>
+  </si>
+  <si>
+    <t>Roxana</t>
+  </si>
+  <si>
+    <t>Melendez</t>
+  </si>
+  <si>
+    <t>Calasanz</t>
+  </si>
+  <si>
+    <t>Pabon</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Salasar</t>
+  </si>
+  <si>
+    <t>Ordóñez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisandro  </t>
+  </si>
+  <si>
+    <t>Ferrer</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Mejia</t>
+  </si>
+  <si>
+    <t>Ordoñez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Lanao</t>
+  </si>
+  <si>
+    <t>Margarita</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Osorio</t>
+  </si>
+  <si>
+    <t>Cuervo</t>
+  </si>
+  <si>
+    <t>Jaramillo</t>
+  </si>
+  <si>
+    <t>Jeronimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribon </t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Zambrano</t>
+  </si>
+  <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Garces</t>
+  </si>
+  <si>
+    <t>Parra</t>
+  </si>
+  <si>
+    <t>Milena</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Palacios</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Jacobo</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Tirado</t>
+  </si>
+  <si>
+    <t>Chivata</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Yarce</t>
+  </si>
+  <si>
+    <t>Ligia</t>
+  </si>
+  <si>
+    <t>Cossio</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Graciela</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>Zuluaga</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Nabil</t>
+  </si>
+  <si>
+    <t>Tena</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Carron</t>
+  </si>
+  <si>
+    <t>Clotilde</t>
+  </si>
+  <si>
+    <t>Megias</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Mejias</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Castellano</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Yolima</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Gonzàlez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudio </t>
+  </si>
+  <si>
+    <t>Narea</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Simòn</t>
+  </si>
+  <si>
+    <t>Santisima Trinidad</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Hitler</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Massa</t>
+  </si>
+  <si>
+    <t>Osanal</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Arroyave</t>
+  </si>
+  <si>
+    <t>Tible</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Lantigua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +638,29 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,13 +668,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,303 +997,2312 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="1">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="1">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="1">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="1">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="1">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="1">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="1">
+        <v>15</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="1">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" s="1">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="1">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="1">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="1">
+        <v>16</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="1">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="1">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="1">
+        <v>12</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="1">
+        <v>12</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="1">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="1">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="1">
+        <v>18</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="1">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="1">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="1">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="1">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="1">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="1">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="1">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="1">
+        <v>17</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="1">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="1">
+        <v>6</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="1">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E78" s="1">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="1">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="1">
+        <v>17</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="1">
+        <v>12</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="1">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="1">
+        <v>14</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="1">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="1">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="1">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="1">
+        <v>16</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="1">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="1">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="1">
+        <v>6</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="1">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" s="1">
+        <v>12</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E94" s="1">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E95" s="1">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1">
+        <v>10</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
+      <c r="D97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" s="1">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base de Datos Julian David Villada.xlsx
+++ b/Base de Datos Julian David Villada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="240">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -617,6 +617,135 @@
   </si>
   <si>
     <t>Lantigua</t>
+  </si>
+  <si>
+    <t>Machado</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Yeins</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Cuesta</t>
+  </si>
+  <si>
+    <t>Cardona</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>Villa hermosa</t>
+  </si>
+  <si>
+    <t>Enciso</t>
+  </si>
+  <si>
+    <t>El salvador</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>El poblado</t>
+  </si>
+  <si>
+    <t>Laureles</t>
+  </si>
+  <si>
+    <t>Sociales</t>
+  </si>
+  <si>
+    <t>Filosofia</t>
+  </si>
+  <si>
+    <t>Etica</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>Arte</t>
+  </si>
+  <si>
+    <t>Educacion fisica</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>2,3 millones</t>
+  </si>
+  <si>
+    <t>1,0 millones</t>
+  </si>
+  <si>
+    <t>2,0 millones</t>
+  </si>
+  <si>
+    <t>1,5 millones</t>
+  </si>
+  <si>
+    <t>Aseo</t>
+  </si>
+  <si>
+    <t>Coordinador</t>
+  </si>
+  <si>
+    <t>Cafeteria</t>
+  </si>
+  <si>
+    <t>Psicologo</t>
+  </si>
+  <si>
+    <t>1 millon</t>
+  </si>
+  <si>
+    <t>800 mil</t>
+  </si>
+  <si>
+    <t>890 mil</t>
+  </si>
+  <si>
+    <t>909 mil</t>
+  </si>
+  <si>
+    <t>900 mil</t>
+  </si>
+  <si>
+    <t>790 mil</t>
+  </si>
+  <si>
+    <t>840 mil</t>
   </si>
 </sst>
 </file>
@@ -660,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -683,11 +812,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -695,6 +1089,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="M104" sqref="M71:M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,17 +1406,19 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1018,26 +1440,29 @@
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1050,17 +1475,39 @@
       <c r="E4" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="1">
+        <f>2022- E3:E23</f>
+        <v>2009</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1073,17 +1520,39 @@
       <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G68" si="0">2022- E4:E24</f>
+        <v>2010</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1096,17 +1565,39 @@
       <c r="E6" s="1">
         <v>11</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1119,17 +1610,39 @@
       <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1142,17 +1655,39 @@
       <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1165,17 +1700,39 @@
       <c r="E9" s="1">
         <v>17</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1188,17 +1745,39 @@
       <c r="E10" s="1">
         <v>18</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1211,17 +1790,39 @@
       <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1234,17 +1835,39 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1257,17 +1880,39 @@
       <c r="E13" s="1">
         <v>15</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1280,17 +1925,39 @@
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1303,17 +1970,39 @@
       <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1326,17 +2015,39 @@
       <c r="E16" s="1">
         <v>12</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1349,17 +2060,39 @@
       <c r="E17" s="1">
         <v>17</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1372,17 +2105,39 @@
       <c r="E18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1395,17 +2150,39 @@
       <c r="E19" s="1">
         <v>11</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1418,17 +2195,39 @@
       <c r="E20" s="1">
         <v>14</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,17 +2240,39 @@
       <c r="E21" s="1">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1464,17 +2285,39 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1487,17 +2330,39 @@
       <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1510,17 +2375,39 @@
       <c r="E24" s="1">
         <v>9</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1533,17 +2420,39 @@
       <c r="E25" s="1">
         <v>13</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1556,17 +2465,39 @@
       <c r="E26" s="1">
         <v>14</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1579,17 +2510,39 @@
       <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1602,17 +2555,39 @@
       <c r="E28" s="1">
         <v>15</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1625,17 +2600,39 @@
       <c r="E29" s="1">
         <v>12</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1648,17 +2645,39 @@
       <c r="E30" s="1">
         <v>11</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
@@ -1671,17 +2690,39 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1694,17 +2735,39 @@
       <c r="E32" s="1">
         <v>9</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
@@ -1717,17 +2780,39 @@
       <c r="E33" s="1">
         <v>7</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
@@ -1740,17 +2825,39 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
@@ -1763,17 +2870,39 @@
       <c r="E35" s="1">
         <v>8</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1786,17 +2915,39 @@
       <c r="E36" s="1">
         <v>12</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>105</v>
       </c>
@@ -1809,17 +2960,39 @@
       <c r="E37" s="1">
         <v>11</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>108</v>
       </c>
@@ -1832,17 +3005,39 @@
       <c r="E38" s="1">
         <v>13</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
@@ -1855,17 +3050,39 @@
       <c r="E39" s="1">
         <v>12</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1878,17 +3095,39 @@
       <c r="E40" s="1">
         <v>12</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
@@ -1901,17 +3140,39 @@
       <c r="E41" s="1">
         <v>11</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
@@ -1924,17 +3185,39 @@
       <c r="E42" s="1">
         <v>12</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1947,17 +3230,39 @@
       <c r="E43" s="1">
         <v>11</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -1970,17 +3275,39 @@
       <c r="E44" s="1">
         <v>11</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" s="1">
+        <v>4</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
@@ -1993,17 +3320,39 @@
       <c r="E45" s="1">
         <v>18</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
@@ -2016,17 +3365,39 @@
       <c r="E46" s="1">
         <v>13</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" s="1">
+        <v>5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
@@ -2039,17 +3410,39 @@
       <c r="E47" s="1">
         <v>14</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4</v>
+      </c>
+      <c r="L47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>125</v>
       </c>
@@ -2062,17 +3455,39 @@
       <c r="E48" s="1">
         <v>16</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>5</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>127</v>
       </c>
@@ -2085,17 +3500,39 @@
       <c r="E49" s="1">
         <v>14</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>127</v>
       </c>
@@ -2108,17 +3545,39 @@
       <c r="E50" s="1">
         <v>12</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>5</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -2131,17 +3590,39 @@
       <c r="E51" s="1">
         <v>11</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>5</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
@@ -2154,17 +3635,39 @@
       <c r="E52" s="1">
         <v>15</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
@@ -2177,17 +3680,39 @@
       <c r="E53" s="1">
         <v>13</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
+      </c>
+      <c r="K53" s="1">
+        <v>4</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
@@ -2200,17 +3725,39 @@
       <c r="E54" s="1">
         <v>13</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>134</v>
       </c>
@@ -2223,17 +3770,39 @@
       <c r="E55" s="1">
         <v>12</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>136</v>
       </c>
@@ -2246,17 +3815,39 @@
       <c r="E56" s="1">
         <v>17</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>4</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>139</v>
       </c>
@@ -2269,17 +3860,39 @@
       <c r="E57" s="1">
         <v>16</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>141</v>
       </c>
@@ -2292,17 +3905,39 @@
       <c r="E58" s="1">
         <v>15</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>4</v>
+      </c>
+      <c r="L58" s="1">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
@@ -2315,17 +3950,39 @@
       <c r="E59" s="1">
         <v>6</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="1">
+        <v>4</v>
+      </c>
+      <c r="L59" s="1">
+        <v>3</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>146</v>
       </c>
@@ -2338,17 +3995,39 @@
       <c r="E60" s="1">
         <v>13</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2</v>
+      </c>
+      <c r="L60" s="1">
+        <v>5</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
@@ -2361,17 +4040,39 @@
       <c r="E61" s="1">
         <v>12</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>147</v>
       </c>
@@ -2384,17 +4085,39 @@
       <c r="E62" s="1">
         <v>12</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1">
+        <v>3</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -2407,17 +4130,39 @@
       <c r="E63" s="1">
         <v>11</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>5</v>
+      </c>
+      <c r="L63" s="1">
+        <v>5</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>150</v>
       </c>
@@ -2430,17 +4175,39 @@
       <c r="E64" s="1">
         <v>12</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
@@ -2453,17 +4220,39 @@
       <c r="E65" s="1">
         <v>18</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="2"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1">
+        <v>5</v>
+      </c>
+      <c r="L65" s="1">
+        <v>4</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>152</v>
       </c>
@@ -2476,17 +4265,39 @@
       <c r="E66" s="1">
         <v>6</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="2"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>4</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>153</v>
       </c>
@@ -2499,17 +4310,39 @@
       <c r="E67" s="1">
         <v>12</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="2"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4</v>
+      </c>
+      <c r="K67" s="1">
+        <v>3</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O67" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>155</v>
       </c>
@@ -2522,17 +4355,39 @@
       <c r="E68" s="1">
         <v>14</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="2"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>156</v>
       </c>
@@ -2545,17 +4400,39 @@
       <c r="E69" s="1">
         <v>12</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" ref="G69:G104" si="1">2022- E68:E88</f>
+        <v>2010</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>158</v>
       </c>
@@ -2568,17 +4445,39 @@
       <c r="E70" s="1">
         <v>13</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="2"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4</v>
+      </c>
+      <c r="K70" s="1">
+        <v>3</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>160</v>
       </c>
@@ -2591,17 +4490,39 @@
       <c r="E71" s="1">
         <v>10</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="2"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>3</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>162</v>
       </c>
@@ -2614,17 +4535,39 @@
       <c r="E72" s="1">
         <v>8</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="2"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F72" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="1">
+        <v>5</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>162</v>
       </c>
@@ -2637,17 +4580,39 @@
       <c r="E73" s="1">
         <v>11</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="2"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>37</v>
       </c>
@@ -2660,17 +4625,39 @@
       <c r="E74" s="1">
         <v>17</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="2"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J74" s="1">
+        <v>5</v>
+      </c>
+      <c r="K74" s="1">
+        <v>4</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O74" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
@@ -2683,17 +4670,39 @@
       <c r="E75" s="1">
         <v>12</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="2"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
@@ -2706,17 +4715,39 @@
       <c r="E76" s="1">
         <v>6</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J76" s="1">
+        <v>3</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>4</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O76" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
@@ -2729,17 +4760,39 @@
       <c r="E77" s="1">
         <v>12</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="2"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F77" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>3</v>
+      </c>
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
@@ -2752,17 +4805,39 @@
       <c r="E78" s="1">
         <v>13</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="2"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>4</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>173</v>
       </c>
@@ -2775,17 +4850,39 @@
       <c r="E79" s="1">
         <v>11</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="2"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J79" s="1">
+        <v>3</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="L79" s="1">
+        <v>4</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>175</v>
       </c>
@@ -2798,17 +4895,39 @@
       <c r="E80" s="1">
         <v>17</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J80" s="1">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1">
+        <v>4</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>176</v>
       </c>
@@ -2821,17 +4940,39 @@
       <c r="E81" s="1">
         <v>14</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="2"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J81" s="1">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="L81" s="1">
+        <v>4</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>22</v>
       </c>
@@ -2844,17 +4985,39 @@
       <c r="E82" s="1">
         <v>12</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="2"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1">
+        <v>4</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>179</v>
       </c>
@@ -2867,17 +5030,39 @@
       <c r="E83" s="1">
         <v>12</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="2"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J83" s="1">
+        <v>4</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>181</v>
       </c>
@@ -2890,17 +5075,39 @@
       <c r="E84" s="1">
         <v>14</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="2"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" s="1">
+        <v>4</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>182</v>
       </c>
@@ -2913,17 +5120,39 @@
       <c r="E85" s="1">
         <v>12</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="2"/>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="1">
+        <v>2</v>
+      </c>
+      <c r="K85" s="1">
+        <v>5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>3</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O85" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>184</v>
       </c>
@@ -2936,17 +5165,39 @@
       <c r="E86" s="1">
         <v>13</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="2"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="1">
+        <v>4</v>
+      </c>
+      <c r="K86" s="1">
+        <v>4</v>
+      </c>
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O86" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>186</v>
       </c>
@@ -2959,17 +5210,39 @@
       <c r="E87" s="1">
         <v>11</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="2"/>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J87" s="1">
+        <v>4</v>
+      </c>
+      <c r="K87" s="1">
+        <v>4</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>44</v>
       </c>
@@ -2982,17 +5255,39 @@
       <c r="E88" s="1">
         <v>16</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="2"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J88" s="1">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1">
+        <v>3</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>190</v>
       </c>
@@ -3005,17 +5300,39 @@
       <c r="E89" s="1">
         <v>13</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="2"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J89" s="1">
+        <v>4</v>
+      </c>
+      <c r="K89" s="1">
+        <v>4</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>191</v>
       </c>
@@ -3028,17 +5345,39 @@
       <c r="E90" s="1">
         <v>11</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="2"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>4</v>
+      </c>
+      <c r="L90" s="1">
+        <v>5</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O90" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -3051,17 +5390,39 @@
       <c r="E91" s="1">
         <v>6</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="2"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>4</v>
+      </c>
+      <c r="L91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O91" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
@@ -3074,17 +5435,39 @@
       <c r="E92" s="1">
         <v>14</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="2"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J92" s="1">
+        <v>4</v>
+      </c>
+      <c r="K92" s="1">
+        <v>4</v>
+      </c>
+      <c r="L92" s="1">
+        <v>4</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O92" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>26</v>
       </c>
@@ -3097,17 +5480,39 @@
       <c r="E93" s="1">
         <v>12</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="2"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J93" s="1">
+        <v>4</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>195</v>
       </c>
@@ -3120,17 +5525,39 @@
       <c r="E94" s="1">
         <v>11</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="2"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="1">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O94" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>40</v>
       </c>
@@ -3143,17 +5570,39 @@
       <c r="E95" s="1">
         <v>12</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="2"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" s="1">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>4</v>
+      </c>
+      <c r="L95" s="1">
+        <v>3</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O95" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
@@ -3166,17 +5615,39 @@
       <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="2"/>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J96" s="1">
+        <v>5</v>
+      </c>
+      <c r="K96" s="1">
+        <v>4</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O96" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>28</v>
       </c>
@@ -3189,120 +5660,362 @@
       <c r="E97" s="1">
         <v>13</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="2"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="2"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="2"/>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="2"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="2"/>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="2"/>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="2"/>
+      <c r="F97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J97" s="1">
+        <v>4</v>
+      </c>
+      <c r="K97" s="1">
+        <v>4</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O97" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" s="1">
+        <v>18</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J98" s="1">
+        <v>4</v>
+      </c>
+      <c r="K98" s="1">
+        <v>4</v>
+      </c>
+      <c r="L98" s="1">
+        <v>3</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O98" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="1">
+        <v>15</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2</v>
+      </c>
+      <c r="K99" s="1">
+        <v>5</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="1">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J100" s="1">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="1">
+        <v>14</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>4</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O101" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="1">
+        <v>11</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J102" s="1">
+        <v>2</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1">
+        <v>5</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="1">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J103" s="1">
+        <v>5</v>
+      </c>
+      <c r="K103" s="1">
+        <v>4</v>
+      </c>
+      <c r="L103" s="1">
+        <v>4</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="1">
+        <v>10</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="L104" s="1">
+        <v>4</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G105" s="7"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I106" s="9"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H109" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3312,15 +6025,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,41 +6043,455 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3823476910</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3515521525</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3645422431</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3545634551</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3455667654</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="14">
+        <v>3858552454</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3855425596</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3876567811</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3565654441</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3185311737</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3565676765</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3122545665</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3112346433</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3454354353</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3432111341</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3543454323</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3543345322</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3563453211</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3654565412</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3565676561</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,24 +6500,673 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3545634552</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3455667653</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3858552451</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="14">
+        <v>3855425595</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="14">
+        <v>3876567816</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="14">
+        <v>3565654448</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3185311739</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3565676761</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3122545665</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3112346431</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3454354355</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3432111345</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="14">
+        <v>3543345326</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3563453213</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="14">
+        <v>3654565415</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="14">
+        <v>3565676562</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3823476911</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3515521523</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3645422432</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3654565414</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="14">
+        <v>3565676565</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="22"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="21"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="21"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="21"/>
+      <c r="C35" s="29"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="29"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="20"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="16"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="16"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="16"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="16"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="16"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="16"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base de Datos Julian David Villada.xlsx
+++ b/Base de Datos Julian David Villada.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="241">
   <si>
     <t>Estudiantes</t>
   </si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>840 mil</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="M104" sqref="M71:M104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,6 +1422,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1463,6 +1469,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1508,6 +1517,9 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1553,6 +1565,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1598,6 +1613,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1643,6 +1661,9 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1688,6 +1709,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1733,6 +1757,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,6 +1805,9 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,6 +1853,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1868,6 +1901,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1913,6 +1949,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1958,6 +1997,9 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2003,6 +2045,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2047,7 +2092,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2092,7 +2140,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2137,7 +2188,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2182,7 +2236,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2227,7 +2284,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2332,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2317,7 +2380,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2362,7 +2428,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2476,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -2452,7 +2524,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -2497,7 +2572,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2542,7 +2620,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2587,7 +2668,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2632,7 +2716,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
@@ -2677,7 +2764,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
@@ -2722,7 +2812,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2767,7 +2860,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
@@ -2812,7 +2908,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
@@ -2857,7 +2956,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +3004,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +3052,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>105</v>
       </c>
@@ -2992,7 +3100,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>108</v>
       </c>
@@ -3037,7 +3148,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3196,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
@@ -3127,7 +3244,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
@@ -3172,7 +3292,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>113</v>
       </c>
@@ -3217,7 +3340,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3388,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
@@ -3307,7 +3436,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>118</v>
       </c>
@@ -3352,7 +3484,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
@@ -3397,7 +3532,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
@@ -3442,7 +3580,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>125</v>
       </c>
@@ -3487,7 +3628,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>127</v>
       </c>
@@ -3532,7 +3676,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>127</v>
       </c>
@@ -3577,7 +3724,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -3622,7 +3772,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
@@ -3667,7 +3820,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
@@ -3712,7 +3868,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
@@ -3757,7 +3916,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>134</v>
       </c>
@@ -3802,7 +3964,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>136</v>
       </c>
@@ -3847,7 +4012,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>139</v>
       </c>
@@ -3892,7 +4060,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>141</v>
       </c>
@@ -3937,7 +4108,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
@@ -3982,7 +4156,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>146</v>
       </c>
@@ -4027,7 +4204,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
@@ -4072,7 +4252,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>147</v>
       </c>
@@ -4117,7 +4300,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -4162,7 +4348,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>150</v>
       </c>
@@ -4207,7 +4396,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
@@ -4252,7 +4444,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>152</v>
       </c>
@@ -4297,7 +4492,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>153</v>
       </c>
@@ -4342,7 +4540,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>155</v>
       </c>
@@ -4387,7 +4588,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>156</v>
       </c>
@@ -4432,7 +4636,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>158</v>
       </c>
@@ -4477,7 +4684,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>160</v>
       </c>
@@ -4522,7 +4732,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>162</v>
       </c>
@@ -4567,7 +4780,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>162</v>
       </c>
@@ -4612,7 +4828,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>37</v>
       </c>
@@ -4657,7 +4876,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
@@ -4702,7 +4924,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
@@ -4747,7 +4972,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
@@ -4792,7 +5020,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
@@ -4837,7 +5068,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>173</v>
       </c>
@@ -4882,7 +5116,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>175</v>
       </c>
@@ -4927,7 +5164,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>176</v>
       </c>
@@ -4972,7 +5212,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>22</v>
       </c>
@@ -5017,7 +5260,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>179</v>
       </c>
@@ -5062,7 +5308,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>181</v>
       </c>
@@ -5107,7 +5356,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>182</v>
       </c>
@@ -5152,7 +5404,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>184</v>
       </c>
@@ -5197,7 +5452,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>186</v>
       </c>
@@ -5242,7 +5500,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>44</v>
       </c>
@@ -5287,7 +5548,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>190</v>
       </c>
@@ -5332,7 +5596,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>191</v>
       </c>
@@ -5377,7 +5644,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -5422,7 +5692,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>25</v>
       </c>
@@ -5467,7 +5740,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>26</v>
       </c>
@@ -5512,7 +5788,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>195</v>
       </c>
@@ -5557,7 +5836,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>40</v>
       </c>
@@ -5602,7 +5884,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
@@ -5647,7 +5932,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>28</v>
       </c>
@@ -5692,7 +5980,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>28</v>
       </c>
@@ -5737,7 +6028,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>173</v>
       </c>
@@ -5782,7 +6076,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>26</v>
       </c>
@@ -5827,7 +6124,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>200</v>
       </c>
@@ -5872,7 +6172,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>105</v>
       </c>
@@ -5917,7 +6220,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
@@ -5962,7 +6268,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>136</v>
       </c>
@@ -6007,14 +6316,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G105" s="7"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I106" s="9"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H109" s="5"/>
     </row>
   </sheetData>
@@ -6028,7 +6337,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6043,6 +6352,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
@@ -6063,6 +6375,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
@@ -6083,6 +6398,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
@@ -6103,6 +6421,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
@@ -6123,6 +6444,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
@@ -6143,6 +6467,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
@@ -6163,6 +6490,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
@@ -6183,6 +6513,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
@@ -6203,6 +6536,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
@@ -6223,6 +6559,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
@@ -6243,6 +6582,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="15" t="s">
         <v>37</v>
       </c>
@@ -6263,6 +6605,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
@@ -6283,6 +6628,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" s="15" t="s">
         <v>162</v>
       </c>
@@ -6303,6 +6651,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" s="15" t="s">
         <v>37</v>
       </c>
@@ -6323,6 +6674,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="15" t="s">
         <v>164</v>
       </c>
@@ -6343,6 +6697,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>166</v>
       </c>
@@ -6363,6 +6720,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" s="15" t="s">
         <v>168</v>
       </c>
@@ -6383,6 +6743,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" s="15" t="s">
         <v>170</v>
       </c>
@@ -6403,6 +6766,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" s="15" t="s">
         <v>173</v>
       </c>
@@ -6423,6 +6789,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" s="15" t="s">
         <v>175</v>
       </c>
@@ -6443,6 +6812,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" s="15" t="s">
         <v>176</v>
       </c>
@@ -6483,8 +6855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,6 +6872,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
@@ -6520,6 +6895,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>125</v>
       </c>
@@ -6540,6 +6918,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
@@ -6560,6 +6941,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
@@ -6580,6 +6964,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
@@ -6600,6 +6987,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6620,6 +7010,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
@@ -6640,6 +7033,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -6660,6 +7056,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>134</v>
       </c>
@@ -6680,6 +7079,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>136</v>
       </c>
@@ -6700,6 +7102,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>139</v>
       </c>
@@ -6720,6 +7125,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
@@ -6740,6 +7148,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
@@ -6760,6 +7171,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>146</v>
       </c>
@@ -6779,7 +7193,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
@@ -6799,7 +7216,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>147</v>
       </c>
@@ -6819,7 +7239,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>118</v>
       </c>
@@ -6839,7 +7262,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>150</v>
       </c>
@@ -6859,7 +7285,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>105</v>
       </c>
@@ -6879,7 +7308,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>152</v>
       </c>
@@ -6899,7 +7331,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>153</v>
       </c>
@@ -6919,7 +7354,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" s="18" t="s">
         <v>155</v>
       </c>
@@ -6939,37 +7377,37 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="22"/>
       <c r="F25" s="26"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="G32" s="22"/>
     </row>
